--- a/BoM/Generic/nixie-bom.xlsx
+++ b/BoM/Generic/nixie-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="197">
   <si>
     <t>Row</t>
   </si>
@@ -344,7 +344,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>R1 R2 R3 R4</t>
+    <t>R1</t>
   </si>
   <si>
     <t>R_Axial_DIN0207_L6.3mm_D2.5mm_P7.62mm_Horizontal</t>
@@ -353,13 +353,19 @@
     <t>18</t>
   </si>
   <si>
-    <t>R15 R17 R22</t>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>R3 R15 R17 R22</t>
   </si>
   <si>
     <t>4.7k</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>R16 R18 R19 R20 R21 R23</t>
@@ -368,7 +374,7 @@
     <t>10k</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>R5 R6 R7 R8 R9 R10 R11 R12 R13 R14</t>
@@ -377,7 +383,16 @@
     <t>15k</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>800k</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>Trim-potentiometer</t>
@@ -395,7 +410,7 @@
     <t>Potentiometer_Bourns_3306P_Vertical</t>
   </si>
   <si>
-    <t>22</t>
+    <t>24</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -410,7 +425,7 @@
     <t>PEC11H4020FS0016</t>
   </si>
   <si>
-    <t>23</t>
+    <t>25</t>
   </si>
   <si>
     <t>CMOS Hex Voltage-Level Shifter for TTL-to-CMOS or CMOS-to-CMOS, DIP-16/SOIC-16/TSSOP-16</t>
@@ -428,7 +443,7 @@
     <t>http://www.ti.com/lit/ds/symlink/cd4504b.pdf</t>
   </si>
   <si>
-    <t>24</t>
+    <t>26</t>
   </si>
   <si>
     <t>20MHz, 32kB Flash, 2kB SRAM, 1kB EEPROM, DIP-28</t>
@@ -446,7 +461,7 @@
     <t>http://ww1.microchip.com/downloads/en/DeviceDoc/ATmega328_P%20AVR%20MCU%20with%20picoPower%20Technology%20Data%20Sheet%2040001984A.pdf</t>
   </si>
   <si>
-    <t>25</t>
+    <t>27</t>
   </si>
   <si>
     <t>±5ppm, I2C Real-Time Clock SOIC-8</t>
@@ -464,7 +479,7 @@
     <t>http://datasheets.maximintegrated.com/en/ds/DS3231M.pdf</t>
   </si>
   <si>
-    <t>26</t>
+    <t>28</t>
   </si>
   <si>
     <t>Serial to Parallel Logic Converters 220V 32Ch Open D Out</t>
@@ -497,7 +512,7 @@
     <t>https://www.arrow.com/en/products/hv5222pg-g/microchip-technology</t>
   </si>
   <si>
-    <t>27</t>
+    <t>29</t>
   </si>
   <si>
     <t>Positive 1A 35V Linear Regulator, Fixed Output 5V, TO-220</t>
@@ -512,7 +527,7 @@
     <t>https://www.onsemi.cn/PowerSolutions/document/MC7800-D.PDF</t>
   </si>
   <si>
-    <t>28</t>
+    <t>30</t>
   </si>
   <si>
     <t>1.5A, step-up/down/inverting switching regulator, 3-40V Vin, 100kHz, DIP-8</t>
@@ -548,7 +563,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>v1.0</t>
+    <t>v1.1</t>
   </si>
   <si>
     <t>Date:</t>
@@ -1090,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1121,7 +1136,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1141,55 +1156,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="C2" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F2" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="C4" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1197,13 +1212,13 @@
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3">
         <v>66</v>
@@ -2181,7 +2196,7 @@
         <v>109</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>23</v>
@@ -2231,13 +2246,13 @@
         <v>111</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>23</v>
@@ -2275,7 +2290,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>106</v>
@@ -2284,16 +2299,16 @@
         <v>107</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>23</v>
@@ -2331,7 +2346,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>106</v>
@@ -2340,16 +2355,16 @@
         <v>107</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>23</v>
@@ -2387,25 +2402,25 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>23</v>
@@ -2441,24 +2456,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="30" customHeight="1">
+    <row r="30" spans="1:18">
       <c r="A30" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>18</v>
@@ -2497,24 +2512,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30" customHeight="1">
+    <row r="31" spans="1:18">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>18</v>
@@ -2522,8 +2537,8 @@
       <c r="H31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>135</v>
+      <c r="I31" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>25</v>
@@ -2553,24 +2568,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="45" customHeight="1">
+    <row r="32" spans="1:18" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>18</v>
@@ -2578,8 +2593,8 @@
       <c r="H32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>141</v>
+      <c r="I32" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>25</v>
@@ -2609,24 +2624,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>18</v>
@@ -2635,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>25</v>
@@ -2665,33 +2680,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="30" customHeight="1">
+    <row r="34" spans="1:18" ht="45" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>25</v>
@@ -2699,46 +2714,46 @@
       <c r="K34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>158</v>
+      <c r="L34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>18</v>
@@ -2747,7 +2762,7 @@
         <v>23</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>25</v>
@@ -2779,57 +2794,169 @@
     </row>
     <row r="36" spans="1:18" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I36" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="30" customHeight="1">
+      <c r="A38" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R36" s="12" t="s">
+      <c r="B38" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R38" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2856,27 +2983,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
